--- a/app/Licenciatura_em_Antropologia.xlsx
+++ b/app/Licenciatura_em_Antropologia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Julieta Mantchane</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>Elta Tembe</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
     <t>Benilde Armindo</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110101362585J</t>
   </si>
   <si>
@@ -294,9 +285,6 @@
     <t xml:space="preserve">Francisca Maria Tomas </t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100422582B</t>
   </si>
   <si>
@@ -369,9 +357,6 @@
     <t>Ester Machava</t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>090701735233N</t>
   </si>
   <si>
@@ -393,9 +378,6 @@
     <t>Sandra Elias Chavana</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>110400380674F</t>
   </si>
   <si>
@@ -462,9 +444,6 @@
     <t>Amunagy Faquira</t>
   </si>
   <si>
-    <t>Distrito de Búzi</t>
-  </si>
-  <si>
     <t>070201422263M</t>
   </si>
   <si>
@@ -540,9 +519,6 @@
     <t>Argentina Miguel</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>081004823083 S</t>
   </si>
   <si>
@@ -615,9 +591,6 @@
     <t xml:space="preserve">Angelica Chacate </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110400380965C</t>
   </si>
   <si>
@@ -687,9 +660,6 @@
     <t>Gizelda Arminda Joao</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>030100414884M</t>
   </si>
   <si>
@@ -753,9 +723,6 @@
     <t>Cidalia Jose Maxlhope</t>
   </si>
   <si>
-    <t>Distrito de Chibuto</t>
-  </si>
-  <si>
     <t>090101815218M</t>
   </si>
   <si>
@@ -777,9 +744,6 @@
     <t>Isabel Jaime</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110101401787J</t>
   </si>
   <si>
@@ -825,9 +789,6 @@
     <t>Amina Dinis Paulo Salimo</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>040100525585B</t>
   </si>
   <si>
@@ -852,9 +813,6 @@
     <t>Flora Ubisse</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>100501589011N</t>
   </si>
   <si>
@@ -945,9 +903,6 @@
     <t>Ana Abudo</t>
   </si>
   <si>
-    <t>Cidade de Lichinga</t>
-  </si>
-  <si>
     <t>010604174923Q</t>
   </si>
   <si>
@@ -970,9 +925,6 @@
   </si>
   <si>
     <t>Anita Ibrahimo</t>
-  </si>
-  <si>
-    <t>Cidade de Pemba</t>
   </si>
   <si>
     <t>020102407600S</t>
@@ -2265,7 +2217,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2281,7 +2233,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2297,7 +2249,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2313,7 +2265,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2329,7 +2281,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2344,9 +2296,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2354,7 +2304,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2365,7 +2315,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2374,7 +2324,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2386,7 +2336,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2394,7 +2344,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2490,7 +2440,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2533,7 +2483,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2860,7 +2810,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2876,7 +2826,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2892,7 +2842,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2908,7 +2858,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2924,7 +2874,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2939,9 +2889,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2949,7 +2897,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2960,7 +2908,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2969,7 +2917,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2981,7 +2929,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3085,7 +3033,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3128,7 +3076,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3455,7 +3403,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3471,7 +3419,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3487,7 +3435,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3503,7 +3451,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3519,7 +3467,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3534,9 +3482,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>136</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3544,7 +3490,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3555,7 +3501,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3564,7 +3510,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3576,7 +3522,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3584,7 +3530,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3680,7 +3626,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3723,7 +3669,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4050,7 +3996,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4066,7 +4012,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4082,7 +4028,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4098,7 +4044,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4114,7 +4060,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4129,9 +4075,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4139,7 +4083,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4150,7 +4094,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4159,7 +4103,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4171,7 +4115,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4179,7 +4123,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4275,7 +4219,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4318,7 +4262,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4645,7 +4589,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4661,7 +4605,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4677,7 +4621,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4693,7 +4637,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4709,7 +4653,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4724,9 +4668,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4734,7 +4676,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4745,7 +4687,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4754,7 +4696,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4766,7 +4708,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4774,7 +4716,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4870,7 +4812,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4913,7 +4855,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5240,7 +5182,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5256,7 +5198,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5272,7 +5214,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5288,7 +5230,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5304,7 +5246,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5319,9 +5261,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5329,7 +5269,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5340,7 +5280,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5349,7 +5289,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5361,7 +5301,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5369,7 +5309,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5465,7 +5405,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5508,7 +5448,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5835,7 +5775,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5851,7 +5791,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5867,7 +5807,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5883,7 +5823,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5899,7 +5839,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5914,9 +5854,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5924,7 +5862,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5935,7 +5873,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5944,7 +5882,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5956,7 +5894,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5964,7 +5902,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6060,7 +5998,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6103,7 +6041,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6430,7 +6368,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6446,7 +6384,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6462,7 +6400,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6478,7 +6416,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6494,7 +6432,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6509,9 +6447,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6519,7 +6455,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6530,7 +6466,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6539,7 +6475,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6551,7 +6487,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6559,7 +6495,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6655,7 +6591,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6698,7 +6634,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7025,7 +6961,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7041,7 +6977,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7057,7 +6993,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7073,7 +7009,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7089,7 +7025,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7104,9 +7040,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7114,7 +7048,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7125,7 +7059,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7134,7 +7068,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7146,7 +7080,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7154,7 +7088,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7250,7 +7184,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7293,7 +7227,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7620,7 +7554,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7636,7 +7570,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7652,7 +7586,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7668,7 +7602,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7684,7 +7618,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7699,9 +7633,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7709,7 +7641,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7720,7 +7652,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7729,7 +7661,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7741,7 +7673,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7749,7 +7681,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7845,7 +7777,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7888,7 +7820,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8294,9 +8226,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8304,7 +8234,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8315,7 +8245,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8324,7 +8254,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8336,7 +8266,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8440,7 +8370,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8483,7 +8413,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8810,7 +8740,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8826,7 +8756,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8842,7 +8772,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8858,7 +8788,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8874,7 +8804,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8889,9 +8819,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8899,7 +8827,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8910,7 +8838,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8919,7 +8847,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8931,7 +8859,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8939,7 +8867,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9035,7 +8963,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9078,7 +9006,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9405,7 +9333,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9421,7 +9349,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9437,7 +9365,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9453,7 +9381,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9469,7 +9397,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9484,9 +9412,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9494,7 +9420,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9505,7 +9431,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9514,7 +9440,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9526,7 +9452,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9534,7 +9460,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9630,7 +9556,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9673,7 +9599,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10000,7 +9926,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10016,7 +9942,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10207,7 +10133,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10573,7 +10499,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10589,7 +10515,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10605,7 +10531,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10621,7 +10547,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10637,7 +10563,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10652,9 +10578,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10662,7 +10586,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10673,7 +10597,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10682,7 +10606,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10694,7 +10618,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10702,7 +10626,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10798,7 +10722,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10841,7 +10765,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11168,7 +11092,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11184,7 +11108,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11375,7 +11299,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11741,7 +11665,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11757,7 +11681,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11773,7 +11697,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11789,7 +11713,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11805,7 +11729,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11820,9 +11744,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>233</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11830,7 +11752,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11841,7 +11763,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11850,7 +11772,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11862,7 +11784,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11870,7 +11792,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11966,7 +11888,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12009,7 +11931,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12336,7 +12258,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12352,7 +12274,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12368,7 +12290,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12384,7 +12306,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12400,7 +12322,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12415,9 +12337,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>241</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12425,7 +12345,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12436,7 +12356,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12445,7 +12365,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12457,7 +12377,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12465,7 +12385,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12561,7 +12481,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12604,7 +12524,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12931,7 +12851,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12947,7 +12867,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12963,7 +12883,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12979,7 +12899,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12995,7 +12915,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13010,9 +12930,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13020,7 +12938,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13031,7 +12949,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13040,7 +12958,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13052,7 +12970,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13060,7 +12978,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13156,7 +13074,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13199,7 +13117,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13526,7 +13444,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13542,7 +13460,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13558,7 +13476,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13574,7 +13492,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13590,7 +13508,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13605,9 +13523,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>257</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13615,7 +13531,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13626,7 +13542,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13635,7 +13551,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13647,7 +13563,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13655,7 +13571,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13751,7 +13667,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13794,7 +13710,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14121,7 +14037,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14137,7 +14053,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14153,7 +14069,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14169,7 +14085,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14185,7 +14101,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14200,9 +14116,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>266</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14210,7 +14124,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14221,7 +14135,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14230,7 +14144,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14242,7 +14156,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14250,7 +14164,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14346,7 +14260,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14389,7 +14303,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14716,7 +14630,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14732,7 +14646,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14748,7 +14662,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14764,7 +14678,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14780,7 +14694,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14795,9 +14709,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14805,7 +14717,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14816,7 +14728,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14825,7 +14737,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14837,7 +14749,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14845,7 +14757,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14941,7 +14853,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14984,7 +14896,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15311,7 +15223,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15327,7 +15239,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15343,7 +15255,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15359,7 +15271,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15375,7 +15287,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15390,9 +15302,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15400,7 +15310,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15411,7 +15321,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15420,7 +15330,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15432,7 +15342,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15440,7 +15350,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15536,7 +15446,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15579,7 +15489,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15906,7 +15816,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15922,7 +15832,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15938,7 +15848,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15954,7 +15864,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15970,7 +15880,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15985,9 +15895,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15995,7 +15903,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16006,7 +15914,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16015,7 +15923,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16027,7 +15935,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16035,7 +15943,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16131,7 +16039,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16174,7 +16082,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16501,7 +16409,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16517,7 +16425,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16533,7 +16441,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16549,7 +16457,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16565,7 +16473,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16580,9 +16488,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16590,7 +16496,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16601,7 +16507,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16610,7 +16516,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16622,7 +16528,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16630,7 +16536,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16726,7 +16632,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16769,7 +16675,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17096,7 +17002,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17112,7 +17018,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17128,7 +17034,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17144,7 +17050,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17160,7 +17066,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17175,9 +17081,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>297</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17185,7 +17089,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17196,7 +17100,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17205,7 +17109,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17217,7 +17121,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17225,7 +17129,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17321,7 +17225,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17364,7 +17268,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17691,7 +17595,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17707,7 +17611,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17723,7 +17627,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17739,7 +17643,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17755,7 +17659,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17770,9 +17674,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>306</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17780,7 +17682,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17791,7 +17693,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17800,7 +17702,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17812,7 +17714,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17820,7 +17722,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17916,7 +17818,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17959,7 +17861,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18286,7 +18188,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18302,7 +18204,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18318,7 +18220,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18334,7 +18236,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18350,7 +18252,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18365,9 +18267,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18375,7 +18275,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18386,7 +18286,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18395,7 +18295,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18407,7 +18307,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18415,7 +18315,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18511,7 +18411,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18554,7 +18454,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18937,7 +18837,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18953,7 +18853,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18969,7 +18869,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18985,7 +18885,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19001,7 +18901,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19016,9 +18916,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19026,7 +18924,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19037,7 +18935,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19046,7 +18944,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19058,7 +18956,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19066,7 +18964,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19162,7 +19060,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19205,7 +19103,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19532,7 +19430,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19548,7 +19446,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19564,7 +19462,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19580,7 +19478,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19596,7 +19494,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19611,9 +19509,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19621,7 +19517,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19632,7 +19528,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19641,7 +19537,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19653,7 +19549,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19661,7 +19557,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19757,7 +19653,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19800,7 +19696,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20127,7 +20023,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20143,7 +20039,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20159,7 +20055,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20175,7 +20071,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20191,7 +20087,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20206,9 +20102,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20216,7 +20110,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20227,7 +20121,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20236,7 +20130,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20248,7 +20142,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20256,7 +20150,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20352,7 +20246,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20395,7 +20289,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20722,7 +20616,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20738,7 +20632,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20754,7 +20648,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20770,7 +20664,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20786,7 +20680,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20801,9 +20695,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20811,7 +20703,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20822,7 +20714,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20831,7 +20723,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20843,7 +20735,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20851,7 +20743,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20947,7 +20839,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20990,7 +20882,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21317,7 +21209,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21333,7 +21225,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21349,7 +21241,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21365,7 +21257,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21381,7 +21273,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21396,9 +21288,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>105</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21406,7 +21296,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21417,7 +21307,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21426,7 +21316,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21438,7 +21328,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21446,7 +21336,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21542,7 +21432,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21585,7 +21475,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21912,7 +21802,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21928,7 +21818,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21944,7 +21834,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21960,7 +21850,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21976,7 +21866,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21991,9 +21881,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22001,7 +21889,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22012,7 +21900,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22021,7 +21909,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22033,7 +21921,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22041,7 +21929,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22137,7 +22025,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22180,7 +22068,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
